--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>314.5765302842967</v>
+        <v>274.9941396757777</v>
       </c>
       <c r="R2">
-        <v>2831.18877255867</v>
+        <v>2474.947257081999</v>
       </c>
       <c r="S2">
-        <v>0.07758024808147043</v>
+        <v>0.07796466311718635</v>
       </c>
       <c r="T2">
-        <v>0.07758024808147043</v>
+        <v>0.07796466311718636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H3">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>391.204206977111</v>
+        <v>286.8626536038667</v>
       </c>
       <c r="R3">
-        <v>3520.837862793999</v>
+        <v>2581.763882434801</v>
       </c>
       <c r="S3">
-        <v>0.09647801570056989</v>
+        <v>0.08132955187880166</v>
       </c>
       <c r="T3">
-        <v>0.09647801570056992</v>
+        <v>0.08132955187880168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H4">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J4">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>293.1155102556173</v>
+        <v>134.4310863964553</v>
       </c>
       <c r="R4">
-        <v>2638.039592300555</v>
+        <v>1209.879777568098</v>
       </c>
       <c r="S4">
-        <v>0.07228757333424225</v>
+        <v>0.03811308261235721</v>
       </c>
       <c r="T4">
-        <v>0.07228757333424225</v>
+        <v>0.03811308261235721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H5">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J5">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>47.46575398675333</v>
+        <v>34.842677975133</v>
       </c>
       <c r="R5">
-        <v>427.1917858807799</v>
+        <v>313.584101776197</v>
       </c>
       <c r="S5">
-        <v>0.01170591132891705</v>
+        <v>0.00987838378532228</v>
       </c>
       <c r="T5">
-        <v>0.01170591132891706</v>
+        <v>0.009878383785322282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H6">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J6">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>252.1310678982256</v>
+        <v>99.364357787373</v>
       </c>
       <c r="R6">
-        <v>2269.17961108403</v>
+        <v>894.2792200863571</v>
       </c>
       <c r="S6">
-        <v>0.06218007039149683</v>
+        <v>0.02817117735629505</v>
       </c>
       <c r="T6">
-        <v>0.06218007039149684</v>
+        <v>0.02817117735629506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J7">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>6.986249374338667</v>
+        <v>8.328575165029777</v>
       </c>
       <c r="R7">
-        <v>62.876244369048</v>
+        <v>74.95717648526799</v>
       </c>
       <c r="S7">
-        <v>0.001722935144368165</v>
+        <v>0.002361266890099137</v>
       </c>
       <c r="T7">
-        <v>0.001722935144368166</v>
+        <v>0.002361266890099137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>8.688029408177774</v>
+        <v>8.688029408177778</v>
       </c>
       <c r="R8">
-        <v>78.19226467359998</v>
+        <v>78.19226467360001</v>
       </c>
       <c r="S8">
-        <v>0.002142624804896924</v>
+        <v>0.002463177167191292</v>
       </c>
       <c r="T8">
-        <v>0.002142624804896924</v>
+        <v>0.002463177167191292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J9">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>6.509633914143556</v>
+        <v>4.071430063526222</v>
       </c>
       <c r="R9">
-        <v>58.586705227292</v>
+        <v>36.642870571736</v>
       </c>
       <c r="S9">
-        <v>0.001605393172600646</v>
+        <v>0.001154307046987469</v>
       </c>
       <c r="T9">
-        <v>0.001605393172600647</v>
+        <v>0.001154307046987469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.488444</v>
       </c>
       <c r="I10">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J10">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>1.054139651781333</v>
+        <v>1.055258351356</v>
       </c>
       <c r="R10">
-        <v>9.487256866031998</v>
+        <v>9.497325162204</v>
       </c>
       <c r="S10">
-        <v>0.000259969857331067</v>
+        <v>0.0002991804187611742</v>
       </c>
       <c r="T10">
-        <v>0.000259969857331067</v>
+        <v>0.0002991804187611742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.488444</v>
       </c>
       <c r="I11">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J11">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>5.599433987536888</v>
+        <v>3.009386031036</v>
       </c>
       <c r="R11">
-        <v>50.394905887832</v>
+        <v>27.084474279324</v>
       </c>
       <c r="S11">
-        <v>0.001380921448514731</v>
+        <v>0.0008532027932519421</v>
       </c>
       <c r="T11">
-        <v>0.001380921448514731</v>
+        <v>0.0008532027932519422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H12">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J12">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>317.638417370766</v>
+        <v>511.2377539688696</v>
       </c>
       <c r="R12">
-        <v>2858.745756336894</v>
+        <v>4601.139785719826</v>
       </c>
       <c r="S12">
-        <v>0.07833536468076364</v>
+        <v>0.1449430133600799</v>
       </c>
       <c r="T12">
-        <v>0.07833536468076366</v>
+        <v>0.1449430133600799</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H13">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J13">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>395.0119389411998</v>
+        <v>533.3023420022668</v>
       </c>
       <c r="R13">
-        <v>3555.107450470799</v>
+        <v>4799.7210780204</v>
       </c>
       <c r="S13">
-        <v>0.09741707110351043</v>
+        <v>0.1511986309338635</v>
       </c>
       <c r="T13">
-        <v>0.09741707110351046</v>
+        <v>0.1511986309338635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H14">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>295.968509476139</v>
+        <v>249.9189501054393</v>
       </c>
       <c r="R14">
-        <v>2663.716585285251</v>
+        <v>2249.270550948954</v>
       </c>
       <c r="S14">
-        <v>0.07299117441695584</v>
+        <v>0.07085549813732182</v>
       </c>
       <c r="T14">
-        <v>0.07299117441695586</v>
+        <v>0.07085549813732182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H15">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J15">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>47.92775532884399</v>
+        <v>64.77553467600899</v>
       </c>
       <c r="R15">
-        <v>431.3497979595959</v>
+        <v>582.9798120840809</v>
       </c>
       <c r="S15">
-        <v>0.01181984919548635</v>
+        <v>0.01836476495537298</v>
       </c>
       <c r="T15">
-        <v>0.01181984919548636</v>
+        <v>0.01836476495537298</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H16">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J16">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>254.585150725694</v>
+        <v>184.726886033529</v>
       </c>
       <c r="R16">
-        <v>2291.266356531245</v>
+        <v>1662.541974301761</v>
       </c>
       <c r="S16">
-        <v>0.06278529149427717</v>
+        <v>0.05237264130527051</v>
       </c>
       <c r="T16">
-        <v>0.0627852914942772</v>
+        <v>0.05237264130527052</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H17">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I17">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J17">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>69.29806594243065</v>
+        <v>39.70195039160855</v>
       </c>
       <c r="R17">
-        <v>623.682593481876</v>
+        <v>357.3175535244769</v>
       </c>
       <c r="S17">
-        <v>0.01709015336433774</v>
+        <v>0.01125605509639758</v>
       </c>
       <c r="T17">
-        <v>0.01709015336433775</v>
+        <v>0.01125605509639758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H18">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I18">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J18">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>86.17837734924441</v>
+        <v>41.41545291115555</v>
       </c>
       <c r="R18">
-        <v>775.6053961431998</v>
+        <v>372.7390762004</v>
       </c>
       <c r="S18">
-        <v>0.02125314271846903</v>
+        <v>0.01174185689146288</v>
       </c>
       <c r="T18">
-        <v>0.02125314271846904</v>
+        <v>0.01174185689146289</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H19">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I19">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J19">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>64.57041769799488</v>
+        <v>19.40832749925044</v>
       </c>
       <c r="R19">
-        <v>581.133759281954</v>
+        <v>174.674947493254</v>
       </c>
       <c r="S19">
-        <v>0.01592423000917266</v>
+        <v>0.005502530770041601</v>
       </c>
       <c r="T19">
-        <v>0.01592423000917267</v>
+        <v>0.005502530770041602</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H20">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I20">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J20">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>10.45623126050933</v>
+        <v>5.030370007558999</v>
       </c>
       <c r="R20">
-        <v>94.10608134458397</v>
+        <v>45.27333006803099</v>
       </c>
       <c r="S20">
-        <v>0.002578695284274467</v>
+        <v>0.001426179857710913</v>
       </c>
       <c r="T20">
-        <v>0.002578695284274468</v>
+        <v>0.001426179857710913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H21">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I21">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J21">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>55.54195461929821</v>
+        <v>14.345610449079</v>
       </c>
       <c r="R21">
-        <v>499.8775915736839</v>
+        <v>129.110494041711</v>
       </c>
       <c r="S21">
-        <v>0.01369764811888773</v>
+        <v>0.004067180075879082</v>
       </c>
       <c r="T21">
-        <v>0.01369764811888774</v>
+        <v>0.004067180075879083</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H22">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J22">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>273.8407537918247</v>
+        <v>333.6548847826289</v>
       </c>
       <c r="R22">
-        <v>2464.566784126422</v>
+        <v>3002.893963043659</v>
       </c>
       <c r="S22">
-        <v>0.06753407062754144</v>
+        <v>0.09459580018741982</v>
       </c>
       <c r="T22">
-        <v>0.06753407062754145</v>
+        <v>0.09459580018741982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H23">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J23">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>340.5456053200443</v>
+        <v>348.0551467368889</v>
       </c>
       <c r="R23">
-        <v>3064.910447880399</v>
+        <v>3132.496320632</v>
       </c>
       <c r="S23">
-        <v>0.08398469052954137</v>
+        <v>0.09867847472509111</v>
       </c>
       <c r="T23">
-        <v>0.08398469052954138</v>
+        <v>0.09867847472509113</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H24">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J24">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>255.1588073144959</v>
+        <v>163.1074345645911</v>
       </c>
       <c r="R24">
-        <v>2296.429265830463</v>
+        <v>1467.96691108132</v>
       </c>
       <c r="S24">
-        <v>0.06292676555921331</v>
+        <v>0.04624322613830952</v>
       </c>
       <c r="T24">
-        <v>0.06292676555921331</v>
+        <v>0.04624322613830952</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H25">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J25">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>41.31922314510533</v>
+        <v>42.27519073321999</v>
       </c>
       <c r="R25">
-        <v>371.873008305948</v>
+        <v>380.47671659898</v>
       </c>
       <c r="S25">
-        <v>0.01019006592524212</v>
+        <v>0.01198560452094105</v>
       </c>
       <c r="T25">
-        <v>0.01019006592524212</v>
+        <v>0.01198560452094105</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H26">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>219.4816047630442</v>
+        <v>120.56039953482</v>
       </c>
       <c r="R26">
-        <v>1975.334442867398</v>
+        <v>1085.04359581338</v>
       </c>
       <c r="S26">
-        <v>0.05412812370791859</v>
+        <v>0.034180549978584</v>
       </c>
       <c r="T26">
-        <v>0.0541281237079186</v>
+        <v>0.03418054997858401</v>
       </c>
     </row>
   </sheetData>
